--- a/CogER.xlsx
+++ b/CogER.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="23">
   <si>
     <t>can</t>
   </si>
@@ -81,6 +81,18 @@
   </si>
   <si>
     <t>Participant</t>
+  </si>
+  <si>
+    <t>55926</t>
+  </si>
+  <si>
+    <t>56998</t>
+  </si>
+  <si>
+    <t>56074</t>
+  </si>
+  <si>
+    <t>55977</t>
   </si>
 </sst>
 </file>
@@ -401,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -425,91 +437,91 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>9</v>
@@ -523,10 +535,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -537,10 +549,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -551,44 +563,44 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -635,44 +647,44 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
         <v>9</v>
       </c>
-      <c r="B17">
-        <v>11</v>
-      </c>
       <c r="C17" t="s">
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -719,10 +731,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
@@ -733,10 +745,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B24">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -747,10 +759,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B25">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
@@ -761,7 +773,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B26">
         <v>11</v>
@@ -775,10 +787,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -789,19 +801,190 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31">
         <v>12</v>
       </c>
-      <c r="C28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:D28">
+    <sortCondition ref="A2:A28"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>